--- a/Taxopark/Excel1.xlsx
+++ b/Taxopark/Excel1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
   <si>
     <t>qq</t>
   </si>
@@ -69,9 +69,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -352,31 +357,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>44897.446319444447</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2">
         <v>2</v>
       </c>
     </row>
@@ -384,16 +390,16 @@
       <c r="A2" s="1">
         <v>44897.450601851851</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
         <v>0</v>
       </c>
     </row>
@@ -401,16 +407,16 @@
       <c r="A3" s="1">
         <v>44897.450601851851</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -418,16 +424,16 @@
       <c r="A4" s="1">
         <v>44897.451863425929</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
         <v>0</v>
       </c>
     </row>
@@ -435,17 +441,85 @@
       <c r="A5" s="1">
         <v>44897.454548611109</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>44897.547569444447</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>12341234</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1234</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>44897.566481481481</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>44897.568414351852</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>333332222</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>44897.569050925929</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>234</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Taxopark/Excel1.xlsx
+++ b/Taxopark/Excel1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6139CCE7-56A8-4155-B352-FE6DF8200508}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -69,13 +70,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -356,20 +360,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>44897.446319444447</v>
       </c>
@@ -386,7 +390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44897.450601851851</v>
       </c>
@@ -403,7 +407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44897.450601851851</v>
       </c>
@@ -420,7 +424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44897.451863425929</v>
       </c>
@@ -437,7 +441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44897.454548611109</v>
       </c>
@@ -454,7 +458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44897.547569444447</v>
       </c>
@@ -471,7 +475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44897.566481481481</v>
       </c>
@@ -488,7 +492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44897.568414351852</v>
       </c>
@@ -505,7 +509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44897.569050925929</v>
       </c>
@@ -521,6 +525,184 @@
       <c r="E9" s="2">
         <v>2</v>
       </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44900.097685185188</v>
+      </c>
+      <c r="B10" s="2">
+        <v>54</v>
+      </c>
+      <c r="C10" s="2">
+        <v>54</v>
+      </c>
+      <c r="D10" s="2">
+        <v>54</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Taxopark/Excel1.xlsx
+++ b/Taxopark/Excel1.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6139CCE7-56A8-4155-B352-FE6DF8200508}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -20,33 +19,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
-  <si>
-    <t>qq</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>qqqq</t>
-  </si>
-  <si>
-    <t>gg</t>
-  </si>
-  <si>
-    <t>ggggg</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Время вызова</t>
+  </si>
+  <si>
+    <t>Номер клиента</t>
+  </si>
+  <si>
+    <t>Откуда</t>
+  </si>
+  <si>
+    <t>Куда</t>
+  </si>
+  <si>
+    <t>Код тарифа</t>
+  </si>
+  <si>
+    <t>Жукова 18</t>
+  </si>
+  <si>
+    <t>Трилиссера 5</t>
+  </si>
+  <si>
+    <t>Жукова 5</t>
+  </si>
+  <si>
+    <t>Байкальская 7</t>
+  </si>
+  <si>
+    <t>Гоголя 15</t>
+  </si>
+  <si>
+    <t>Советская 65</t>
+  </si>
+  <si>
+    <t>Академическая 7</t>
+  </si>
+  <si>
+    <t>Трактовая 9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -58,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -66,11 +98,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -78,8 +125,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -360,351 +413,292 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>44897.446319444447</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>44897.450601851851</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>44905.709513888891</v>
+      </c>
+      <c r="B2" s="2">
+        <v>89046669898</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>44897.450601851851</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
+        <v>44907.293692129628</v>
+      </c>
+      <c r="B3" s="2">
+        <v>89041325015</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>44897.451863425929</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>44907.538356481484</v>
+      </c>
+      <c r="B4" s="2">
+        <v>83764837438</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>44897.454548611109</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>44907.539120370369</v>
+      </c>
+      <c r="B5" s="2">
+        <v>80103130347</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>44897.547569444447</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>12341234</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1234</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>44897.566481481481</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>44897.568414351852</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>333332222</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>44897.569050925929</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <v>234</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>44900.097685185188</v>
-      </c>
-      <c r="B10" s="2">
-        <v>54</v>
-      </c>
-      <c r="C10" s="2">
-        <v>54</v>
-      </c>
-      <c r="D10" s="2">
-        <v>54</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>